--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3642</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Wayne Dillon Parnell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/01/2009</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2930</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>05/04/2009</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2956</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>09/04/2009</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2961</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,7 +698,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>13/04/2009</t>
@@ -644,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2962</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,7 +745,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>22/09/2009</t>
@@ -692,7 +752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3020</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -732,7 +792,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>24/09/2009</t>
@@ -740,7 +799,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3022</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>27/11/2009</t>
@@ -840,7 +898,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +950,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/10/2010</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3189</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/10/2010</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3192</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1132,7 +1188,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>22/10/2010</t>
@@ -1140,7 +1195,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3194</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1235,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/11/2010</t>
@@ -1188,7 +1242,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1294,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1346,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1398,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1542,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>22/01/2012</t>
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3436</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>05/09/2012</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2007,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2008,7 +2059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2099,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>05/12/2013</t>
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2108,7 +2158,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2198,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>12/07/2014</t>
@@ -2156,7 +2205,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2196,7 +2245,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>17/08/2014</t>
@@ -2204,7 +2252,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3653</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2256,7 +2304,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3654</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,7 +2344,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>21/08/2014</t>
@@ -2304,7 +2351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3656</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2344,7 +2391,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -2352,7 +2398,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2404,7 +2450,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3671</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2456,7 +2502,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2542,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -2504,7 +2549,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2556,7 +2601,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2608,7 +2653,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2660,7 +2705,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2700,7 +2745,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>28/01/2015</t>
@@ -2708,7 +2752,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2760,7 +2804,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2812,7 +2856,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2864,7 +2908,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2904,7 +2948,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -2912,7 +2955,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2952,7 +2995,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -2960,7 +3002,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3012,7 +3054,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3052,7 +3094,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -3060,7 +3101,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3100,7 +3141,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>30/09/2016</t>
@@ -3108,7 +3148,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3160,7 +3200,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3200,7 +3240,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -3208,7 +3247,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3260,7 +3299,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3312,7 +3351,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3364,7 +3403,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3416,7 +3455,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3468,7 +3507,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3520,7 +3559,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3572,7 +3611,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3612,7 +3651,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -3620,7 +3658,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3672,7 +3710,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3724,7 +3762,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3776,7 +3814,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3816,7 +3854,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -3824,7 +3861,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3864,7 +3901,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -3872,7 +3908,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3924,7 +3960,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3976,7 +4012,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4016,7 +4052,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -4024,7 +4059,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4076,7 +4111,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4128,7 +4163,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4167,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4189,7 +4224,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4226,7 +4261,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2930</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4263,7 +4298,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2956</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4300,7 +4335,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2961</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4337,7 +4372,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2962</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4374,7 +4409,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3020</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4411,7 +4446,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3022</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4448,7 +4483,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4485,7 +4520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4522,7 +4557,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4559,7 +4594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4596,7 +4631,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4633,7 +4668,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3189</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4670,7 +4705,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3192</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4707,7 +4742,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3194</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4744,7 +4779,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4781,7 +4816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4818,7 +4853,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4855,7 +4890,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4892,7 +4927,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4929,7 +4964,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4966,7 +5001,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5003,7 +5038,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5040,7 +5075,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5077,7 +5112,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5114,7 +5149,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5151,7 +5186,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5188,7 +5223,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5225,7 +5260,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5262,7 +5297,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5299,7 +5334,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5336,7 +5371,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5373,7 +5408,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5410,7 +5445,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3653</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5447,7 +5482,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3654</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5484,7 +5519,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3656</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5521,7 +5556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5558,7 +5593,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3671</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5595,7 +5630,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5632,7 +5667,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5669,7 +5704,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5706,7 +5741,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5743,7 +5778,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5780,7 +5815,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5817,7 +5852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5854,7 +5889,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5891,7 +5926,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5928,7 +5963,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5965,7 +6000,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6002,7 +6037,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6039,7 +6074,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6076,7 +6111,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6113,7 +6148,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6150,7 +6185,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6187,7 +6222,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6224,7 +6259,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6261,7 +6296,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6298,7 +6333,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6335,7 +6370,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6372,7 +6407,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6409,7 +6444,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6446,7 +6481,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6483,7 +6518,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6520,7 +6555,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6557,7 +6592,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6594,7 +6629,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6631,7 +6666,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6668,7 +6703,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6705,7 +6740,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6742,7 +6777,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6768,6 +6803,511 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>1/30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3985</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.12%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4033</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.76%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6896,9 +6897,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6971,15 +6969,421 @@
           <t>3990</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.12%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4033</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.76%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3985</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6989,13 +7393,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7005,13 +7402,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7021,13 +7411,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7035,27 +7418,14 @@
           <t>4028</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.12%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7065,15 +7435,14 @@
           <t>4030</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7083,29 +7452,12 @@
           <t>4033</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7115,13 +7467,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7131,13 +7476,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7145,15 +7483,14 @@
           <t>4557</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7165,13 +7502,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7179,27 +7509,14 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.76%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7209,29 +7526,12 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7239,15 +7539,14 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7257,29 +7556,12 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.85%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7287,27 +7569,14 @@
           <t>4731</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1654,7 +1653,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6897,6 +6896,9 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6969,6 +6971,10 @@
           <t>3990</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6981,6 +6987,10 @@
           <t>3995</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6993,6 +7003,10 @@
           <t>3997</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7005,6 +7019,10 @@
           <t>3999</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7050,6 +7068,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7092,6 +7113,10 @@
           <t>4037</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7104,6 +7129,10 @@
           <t>4517</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7119,6 +7148,9 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7131,6 +7163,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7206,6 +7242,9 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7269,314 +7308,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3942</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3983</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3985</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3989</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3995</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3997</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4028</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4030</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4033</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4037</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3642.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/01/2009</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>05/04/2009</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>09/04/2009</t>
@@ -698,6 +700,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>13/04/2009</t>
@@ -745,6 +748,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>22/09/2009</t>
@@ -792,6 +796,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>24/09/2009</t>
@@ -891,6 +896,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>27/11/2009</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/10/2010</t>
@@ -1141,6 +1148,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/10/2010</t>
@@ -1188,6 +1196,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>22/10/2010</t>
@@ -1235,6 +1244,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/11/2010</t>
@@ -1542,6 +1552,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>22/01/2012</t>
@@ -1641,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -1844,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>05/09/2012</t>
@@ -2099,6 +2112,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>05/12/2013</t>
@@ -2198,6 +2212,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>12/07/2014</t>
@@ -2245,6 +2260,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>17/08/2014</t>
@@ -2344,6 +2360,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>21/08/2014</t>
@@ -2391,6 +2408,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -2542,6 +2560,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -2745,6 +2764,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>28/01/2015</t>
@@ -2948,6 +2968,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -2995,6 +3016,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3094,6 +3116,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -3141,6 +3164,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>30/09/2016</t>
@@ -3240,6 +3264,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -3651,6 +3676,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -3854,6 +3880,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -3901,6 +3928,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -4052,6 +4080,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -6809,509 +6838,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3942</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3983</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3985</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3989</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.27%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3995</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3997</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4028</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.12%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4030</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4033</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4037</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.76%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.85%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>